--- a/ig/main/StructureDefinition-fr-core-practitioner.xlsx
+++ b/ig/main/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23</t>
+    <t>2023-09-19T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1230,6 +1230,9 @@
     <t>degreeR36</t>
   </si>
   <si>
+    <t>Autre diplôme obtenu</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS</t>
   </si>
   <si>
@@ -1251,9 +1254,6 @@
     <t>Practitioner.qualification.code.coding.system</t>
   </si>
   <si>
-    <t>Autre diplôme obtenu</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R36-AutreDiplomeObtenu/FHIR/TRE-R36-AutreDiplomeObtenu</t>
   </si>
   <si>
@@ -1287,6 +1287,9 @@
     <t>degreeR47</t>
   </si>
   <si>
+    <t>Commission de qualification</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR47.id</t>
   </si>
   <si>
@@ -1296,9 +1299,6 @@
     <t>Practitioner.qualification.code.coding:degreeR47.system</t>
   </si>
   <si>
-    <t>Commission de qualification</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R47-CommissionQualification/FHIR/TRE-R47-CommissionQualification</t>
   </si>
   <si>
@@ -1320,6 +1320,9 @@
     <t>degreeR48</t>
   </si>
   <si>
+    <t>Diplôme de l'Etat français</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR48.id</t>
   </si>
   <si>
@@ -1329,9 +1332,6 @@
     <t>Practitioner.qualification.code.coding:degreeR48.system</t>
   </si>
   <si>
-    <t>Diplôme de l'Etat français</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R48-DiplomeEtatFrancais/FHIR/TRE-R48-DiplomeEtatFrancais</t>
   </si>
   <si>
@@ -1353,6 +1353,9 @@
     <t>degreeR49</t>
   </si>
   <si>
+    <t>Diplôme d'Etudes Spécialisées</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR49.id</t>
   </si>
   <si>
@@ -1362,9 +1365,6 @@
     <t>Practitioner.qualification.code.coding:degreeR49.system</t>
   </si>
   <si>
-    <t>Diplôme d'Etudes Spécialisées</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R49-DiplomeEtudeSpecialisee/FHIR/TRE-R49-DiplomeEtudeSpecialisee</t>
   </si>
   <si>
@@ -1386,6 +1386,9 @@
     <t>degreeR50</t>
   </si>
   <si>
+    <t>DESC Groupe 1 (diplôme)</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR50.id</t>
   </si>
   <si>
@@ -1395,9 +1398,6 @@
     <t>Practitioner.qualification.code.coding:degreeR50.system</t>
   </si>
   <si>
-    <t>DESC Groupe 1 (diplôme)</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R50-DESCGroupe1Diplome/FHIR/TRE-R50-DESCGroupe1Diplome</t>
   </si>
   <si>
@@ -1419,6 +1419,9 @@
     <t>degreeR51</t>
   </si>
   <si>
+    <t>DESC Groupe 2 (diplôme)</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR51.id</t>
   </si>
   <si>
@@ -1428,9 +1431,6 @@
     <t>Practitioner.qualification.code.coding:degreeR51.system</t>
   </si>
   <si>
-    <t>DESC Groupe 2 (diplôme)</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R51-DESCGroupe2Diplome/FHIR/TRE-R51-DESCGroupe2Diplome</t>
   </si>
   <si>
@@ -1452,6 +1452,9 @@
     <t>degreeR52</t>
   </si>
   <si>
+    <t>Capacité (diplôme)</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR52.id</t>
   </si>
   <si>
@@ -1461,9 +1464,6 @@
     <t>Practitioner.qualification.code.coding:degreeR52.system</t>
   </si>
   <si>
-    <t>Capacité (diplôme)</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R52-CapaciteDiplome/FHIR/TRE-R52-CapaciteDiplome</t>
   </si>
   <si>
@@ -1485,6 +1485,9 @@
     <t>degreeR53</t>
   </si>
   <si>
+    <t>Diplôme d'un pays de l'EEE</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR53.id</t>
   </si>
   <si>
@@ -1494,9 +1497,6 @@
     <t>Practitioner.qualification.code.coding:degreeR53.system</t>
   </si>
   <si>
-    <t>Diplôme d'un pays de l'EEE</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R53-DiplomePaysEEE/FHIR/TRE-R53-DiplomePaysEEE</t>
   </si>
   <si>
@@ -1518,6 +1518,9 @@
     <t>degreeR54</t>
   </si>
   <si>
+    <t>Diplôme d'Université ou Inter-Universitaire</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR54.id</t>
   </si>
   <si>
@@ -1527,9 +1530,6 @@
     <t>Practitioner.qualification.code.coding:degreeR54.system</t>
   </si>
   <si>
-    <t>Diplôme d'Université ou Inter-Universitaire</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R54-DiplomeUniversiteInterUniversitaire/FHIR/TRE-R54-DiplomeUniversiteInterUniversitare</t>
   </si>
   <si>
@@ -1551,6 +1551,9 @@
     <t>degreeR55</t>
   </si>
   <si>
+    <t>Certificat d'Etude Spéciale</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR55.id</t>
   </si>
   <si>
@@ -1560,9 +1563,6 @@
     <t>Practitioner.qualification.code.coding:degreeR55.system</t>
   </si>
   <si>
-    <t>Certificat d'Etude Spéciale</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R55-CertificatEtudeSpeciale/FHIR/TRE-R55-CertificatEtudeSpeciale</t>
   </si>
   <si>
@@ -1584,6 +1584,9 @@
     <t>degreeR56</t>
   </si>
   <si>
+    <t>Attestation</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR56.id</t>
   </si>
   <si>
@@ -1593,9 +1596,6 @@
     <t>Practitioner.qualification.code.coding:degreeR56.system</t>
   </si>
   <si>
-    <t>Attestation</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R56-Attestation/FHIR/TRE-R56-Attestation</t>
   </si>
   <si>
@@ -1617,6 +1617,9 @@
     <t>degreeR57</t>
   </si>
   <si>
+    <t>Diplôme Européen d'Etudes Spécialisées</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR57.id</t>
   </si>
   <si>
@@ -1626,9 +1629,6 @@
     <t>Practitioner.qualification.code.coding:degreeR57.system</t>
   </si>
   <si>
-    <t>Diplôme Européen d'Etudes Spécialisées</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R57-DiplomeEuropeenEtudeSpecialisee/FHIR/TRE-R57-DiplomeEuropeenEtudeSpecialisee</t>
   </si>
   <si>
@@ -1650,6 +1650,9 @@
     <t>degreeR58</t>
   </si>
   <si>
+    <t>Autre type de diplôme</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR58.id</t>
   </si>
   <si>
@@ -1659,9 +1662,6 @@
     <t>Practitioner.qualification.code.coding:degreeR58.system</t>
   </si>
   <si>
-    <t>Autre type de diplôme</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R58-AutreTypeDiplome/FHIR/TRE-R58-AutreTypeDiplome</t>
   </si>
   <si>
@@ -1683,6 +1683,9 @@
     <t>degreeR226</t>
   </si>
   <si>
+    <t>Diplôme de 2ième cycle non qualifiant</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.code.coding:degreeR226.id</t>
   </si>
   <si>
@@ -1690,9 +1693,6 @@
   </si>
   <si>
     <t>Practitioner.qualification.code.coding:degreeR226.system</t>
-  </si>
-  <si>
-    <t>Diplôme de 2ième cycle non qualifiant</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R226-Dip2iemeCycleNQ/FHIR/TRE-R226-Dip2iemeCycleNQ</t>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>46</v>
@@ -8215,7 +8215,7 @@
         <v>147</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>148</v>
+        <v>390</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>149</v>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>35</v>
@@ -8300,10 +8300,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8412,10 +8412,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8526,10 +8526,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8555,7 +8555,7 @@
         <v>62</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>397</v>
+        <v>158</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>159</v>
@@ -9135,7 +9135,7 @@
         <v>147</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>148</v>
+        <v>409</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>149</v>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>35</v>
@@ -9220,10 +9220,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9332,10 +9332,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9446,10 +9446,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9475,7 +9475,7 @@
         <v>62</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>412</v>
+        <v>158</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>159</v>
@@ -10055,7 +10055,7 @@
         <v>147</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>148</v>
+        <v>420</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>149</v>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>35</v>
@@ -10140,10 +10140,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10252,10 +10252,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10366,10 +10366,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10395,7 +10395,7 @@
         <v>62</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>423</v>
+        <v>158</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>159</v>
@@ -10975,7 +10975,7 @@
         <v>147</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>148</v>
+        <v>431</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>149</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>35</v>
@@ -11060,10 +11060,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11172,10 +11172,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11286,10 +11286,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11315,10 +11315,10 @@
         <v>62</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>434</v>
+        <v>158</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>160</v>
@@ -11895,7 +11895,7 @@
         <v>147</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>148</v>
+        <v>442</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>149</v>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>35</v>
@@ -11980,10 +11980,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12092,10 +12092,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12206,10 +12206,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12235,7 +12235,7 @@
         <v>62</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>445</v>
+        <v>158</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>159</v>
@@ -12815,7 +12815,7 @@
         <v>147</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>148</v>
+        <v>453</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>149</v>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>35</v>
@@ -12900,10 +12900,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13012,10 +13012,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13126,10 +13126,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13155,7 +13155,7 @@
         <v>62</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>456</v>
+        <v>158</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>159</v>
@@ -13735,7 +13735,7 @@
         <v>147</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>149</v>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="Y102" s="2"/>
       <c r="Z102" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>35</v>
@@ -13820,10 +13820,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13932,10 +13932,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14046,10 +14046,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14075,7 +14075,7 @@
         <v>62</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>467</v>
+        <v>158</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>159</v>
@@ -14655,7 +14655,7 @@
         <v>147</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>148</v>
+        <v>475</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>149</v>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>35</v>
@@ -14740,10 +14740,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14852,10 +14852,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14966,10 +14966,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14995,7 +14995,7 @@
         <v>62</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>478</v>
+        <v>158</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>159</v>
@@ -15575,7 +15575,7 @@
         <v>147</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>148</v>
+        <v>486</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>149</v>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="Y118" s="2"/>
       <c r="Z118" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>35</v>
@@ -15660,10 +15660,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15772,10 +15772,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15886,10 +15886,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15915,10 +15915,10 @@
         <v>62</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>489</v>
+        <v>158</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>160</v>
@@ -16495,7 +16495,7 @@
         <v>147</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>148</v>
+        <v>497</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>149</v>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="Y126" s="2"/>
       <c r="Z126" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>35</v>
@@ -16580,10 +16580,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16692,10 +16692,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16806,10 +16806,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16835,10 +16835,10 @@
         <v>62</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>500</v>
+        <v>158</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>160</v>
@@ -17415,7 +17415,7 @@
         <v>147</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>148</v>
+        <v>508</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>149</v>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="Y134" s="2"/>
       <c r="Z134" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>35</v>
@@ -17500,10 +17500,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17612,10 +17612,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17726,10 +17726,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17755,7 +17755,7 @@
         <v>62</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>511</v>
+        <v>158</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>159</v>
@@ -18335,7 +18335,7 @@
         <v>147</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>148</v>
+        <v>519</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>149</v>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="Y142" s="2"/>
       <c r="Z142" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>35</v>
@@ -18420,10 +18420,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18532,10 +18532,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18646,10 +18646,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18675,10 +18675,10 @@
         <v>62</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>522</v>
+        <v>158</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>160</v>
@@ -19255,7 +19255,7 @@
         <v>147</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>148</v>
+        <v>530</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>149</v>
@@ -19293,7 +19293,7 @@
       </c>
       <c r="Y150" s="2"/>
       <c r="Z150" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>35</v>
@@ -19340,10 +19340,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19452,10 +19452,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19566,10 +19566,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19595,10 +19595,10 @@
         <v>62</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>533</v>
+        <v>158</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="N153" t="s" s="2">
         <v>160</v>
@@ -20175,7 +20175,7 @@
         <v>147</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>148</v>
+        <v>541</v>
       </c>
       <c r="M158" t="s" s="2">
         <v>149</v>
@@ -20213,7 +20213,7 @@
       </c>
       <c r="Y158" s="2"/>
       <c r="Z158" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>35</v>
@@ -20260,10 +20260,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20372,10 +20372,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20486,10 +20486,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20515,7 +20515,7 @@
         <v>62</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>544</v>
+        <v>158</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>159</v>

--- a/ig/main/StructureDefinition-fr-core-practitioner.xlsx
+++ b/ig/main/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T07:10:34+00:00</t>
+    <t>2023-09-19T08:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-practitioner.xlsx
+++ b/ig/main/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T08:58:18+00:00</t>
+    <t>2023-09-19T09:27:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-practitioner.xlsx
+++ b/ig/main/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T09:27:01+00:00</t>
+    <t>2023-09-19T09:28:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-practitioner.xlsx
+++ b/ig/main/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T09:28:32+00:00</t>
+    <t>2023-09-19T09:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-practitioner.xlsx
+++ b/ig/main/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T09:52:24+00:00</t>
+    <t>2023-10-09T09:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-practitioner.xlsx
+++ b/ig/main/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T09:16:22+00:00</t>
+    <t>2023-10-16T08:03:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
